--- a/AOS E2E New user, login and delete user/Default.xlsx
+++ b/AOS E2E New user, login and delete user/Default.xlsx
@@ -17,15 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+  <si>
+    <t>CIMBdemo1</t>
+  </si>
   <si>
     <t>New Users</t>
-  </si>
-  <si>
-    <t>usmandemo1</t>
-  </si>
-  <si>
-    <t>usmandemo2</t>
   </si>
   <si>
     <t>User account</t>
@@ -519,7 +516,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
@@ -531,26 +528,26 @@
   <sheetData>
     <row r="1" ht="14.95" customFormat="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
